--- a/excel_files/Assets_A.xlsx
+++ b/excel_files/Assets_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,21 @@
           <t>parent_permid</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>projectimage</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>authoritytocreate</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Company_Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -572,6 +587,9 @@
       <c r="O2" t="n">
         <v>5000030092</v>
       </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -637,6 +655,9 @@
       <c r="O3" t="n">
         <v>5000030092</v>
       </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -702,6 +723,9 @@
       <c r="O4" t="n">
         <v>5000030092</v>
       </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -765,6 +789,9 @@
       <c r="O5" t="n">
         <v>5000030092</v>
       </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -830,6 +857,9 @@
       <c r="O6" t="n">
         <v>5000030092</v>
       </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -895,6 +925,9 @@
       <c r="O7" t="n">
         <v>5000030092</v>
       </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -958,6 +991,9 @@
       <c r="O8" t="n">
         <v>5000030092</v>
       </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1021,6 +1057,9 @@
       <c r="O9" t="n">
         <v>5000030092</v>
       </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1084,6 +1123,161 @@
       <c r="O10" t="n">
         <v>5000030092</v>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ArcelorMittal SA sonu</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GASTBEL0009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Flémalle</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wallonie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>56</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Western Europe</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>50.594707</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.466776</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>5000060650</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ArcelorMittal Belgium SA sonu</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>5000030093</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Archiologist</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1234521</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>40.92679582427576</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-94.53104228055014</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Arcel</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/Assets_A.xlsx
+++ b/excel_files/Assets_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,11 +519,6 @@
           <t>authoritytocreate</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Company_Name</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -589,7 +584,6 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -657,7 +651,6 @@
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -725,7 +718,6 @@
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -791,7 +783,6 @@
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -859,7 +850,6 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -927,7 +917,6 @@
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -993,7 +982,6 @@
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1059,7 +1047,6 @@
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1125,7 +1112,6 @@
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1191,93 +1177,76 @@
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Archiologist</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1234521</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>56</v>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
+      <c r="J12" t="n">
+        <v>40.92679582427576</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-94.53104228055014</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Arcel</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Archiologist</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1234521</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>40.92679582427576</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-94.53104228055014</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Arcel</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/Assets_A.xlsx
+++ b/excel_files/Assets_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,21 @@
           <t>authoritytocreate</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Company_Name</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Company_name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +599,9 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -651,6 +669,9 @@
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -718,6 +739,9 @@
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -783,6 +807,9 @@
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -850,6 +877,9 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -917,6 +947,9 @@
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -982,6 +1015,9 @@
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1047,6 +1083,9 @@
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1112,6 +1151,9 @@
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1177,6 +1219,9 @@
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1228,25 +1273,785 @@
       <c r="Q12" t="n">
         <v>1</v>
       </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>New york</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Purse</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>56</v>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>11.10941618462667</v>
+      </c>
+      <c r="K13" t="n">
+        <v>78.84621203765217</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>OnBoard</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>New york</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Purse</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>56</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>11.10941618462667</v>
+      </c>
+      <c r="K14" t="n">
+        <v>78.84621203765217</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>OnBoard</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>New york</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Purse</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>56</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>11.10941618462667</v>
+      </c>
+      <c r="K15" t="n">
+        <v>78.84621203765217</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>OnBoard</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>50.69193470971128</v>
+      </c>
+      <c r="K16" t="n">
+        <v>85.879772050561</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Accesorial charges</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Accesorial charges</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Accesorial charges</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Accesorial charges</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Accesorial charges</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Accesorial charges</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>9.72638402799263</v>
+      </c>
+      <c r="K17" t="n">
+        <v>78.84621203765217</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Accesorial charges</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>18.57961125979508</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-43.53773218696124</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Access Company</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>548976</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>984564</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>13.17149338480252</v>
+      </c>
+      <c r="K19" t="n">
+        <v>78.84621203765217</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Chain reaction</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Chain</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>56421389</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Konoha</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>New york</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>456213</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12.14245068275524</v>
+      </c>
+      <c r="K20" t="n">
+        <v>77.4395000350704</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Itachi</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Uchiha</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Obito</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Obito</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Obito</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Obito</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Obito</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Obito</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>12.82894227413387</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>78.1428560363613</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Obito</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Obito</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>945678</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>68.50248323668676</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>210.72546227969247</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2002</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Ichigo</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Bleach</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mitsuha</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kimino Namaiwa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>11.454184828022939</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>78.49453403700676</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2002</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Takemichi</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Your name</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>tokyo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>tokyo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>78564</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>25.101518908318823</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>92.56165406282439</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>CAnt</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>cant</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
